--- a/biology/Médecine/Joseph_Toynbee/Joseph_Toynbee.xlsx
+++ b/biology/Médecine/Joseph_Toynbee/Joseph_Toynbee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Toynbee (né le 30 décembre 1815 à Heckington (Lincolnshire), décédé le 7 juin 1866 à Londres) était un médecin et otologiste anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père était le riche propriétaire terrien et fermier George Toynbee (1783-1865), dont la première épouse et mère de Joseph était Elizabeth Cullen (1785-1829). Joseph Toynbee a suivi des cours privés, puis est allé à la Grammar School à King's Lynn  (Norfolk). À dix-sept ans, il commença l'étude de la médecine. 
 </t>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit des études de la trompe d'Eustache et du tympan qu'il tenta de restaurer par tympanoplastie.
 Toynbee devient en 1842 membre de la Royal Society et en 1843 membre du Collège royal de chirurgie. À la fondation de l'Hôpital St Mary en 1852, il y devient chirurgien auriculaire et commence à y enseigner les maladies de l'oreille. 
-L'importance de Toynbee en tant que clinicien va de pair avec celle de son rôle en tant qu'anatomopathologiste : ses travaux sur les maladies de l'oreille moyenne font de lui le fondateur de l'otologie moderne[1],[2].
+L'importance de Toynbee en tant que clinicien va de pair avec celle de son rôle en tant qu'anatomopathologiste : ses travaux sur les maladies de l'oreille moyenne font de lui le fondateur de l'otologie moderne,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On the structure of the membrana tympani in the human ear. Richard Taylor, London 1851
 On the use of an artificial membrana tympani in cases of deafness : dependent upon perforation or destruction of the natural organ. J. Churchill, London 1857
